--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2012-至今)/负债合计.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2012-至今)/负债合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1832,6 +1832,137 @@
         <v>4684.04</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6772.86</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1250.18</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1496.46</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>1838.6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14954.94</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1049.31</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2540.87</v>
+      </c>
+      <c r="J11" t="n">
+        <v>319.37</v>
+      </c>
+      <c r="K11" t="n">
+        <v>327576.12</v>
+      </c>
+      <c r="L11" t="n">
+        <v>154.86</v>
+      </c>
+      <c r="M11" t="n">
+        <v>483.19</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1675.55</v>
+      </c>
+      <c r="O11" t="n">
+        <v>218.52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10076.39</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2001.76</v>
+      </c>
+      <c r="R11" t="n">
+        <v>167.52</v>
+      </c>
+      <c r="S11" t="n">
+        <v>989.51</v>
+      </c>
+      <c r="T11" t="n">
+        <v>11698.02</v>
+      </c>
+      <c r="U11" t="n">
+        <v>22214.35</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2463.02</v>
+      </c>
+      <c r="W11" t="n">
+        <v>35300.18</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4710.45</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>103753.67</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>5922.44</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>29.34</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11294.03</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8173.1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>558.91</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>167.28</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>13118.96</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7513.21</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>935.1900000000001</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>3090.31</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>887.3</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>3522.48</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>14487.39</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>7532.88</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1517.04</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1039.69</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>16836.23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>4816.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
